--- a/02_MasterWifoMannheim/99_Backup/Course84.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course84.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3D0DB4B639A2011594EE07249E5FE70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B9B1FA-BF92-4C34-9102-A830B592D9B3}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 684 Financial Institutions II</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course provides an in-depth look at financial institutions and the role they play for financial markets today. The course will address questions such as: Which financial institutions exist? Why do they exist? What risks do they face? risks? prices? How does their behavior impact the economy at large? financial institutions? The course Financial Institutions II will put emphasis on important non-bank financial institutions (e.g., pension funds, mutual funds, hedge funds etc.).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing this course, students will have a thorough understanding of the economic reasons for the existence of non-bank financial institutions. Students will understand the eco-system of non-bank financial institutions and their role in the global financial markets. Students will gain knowledge about what risks managers in non-bank financial institutions face and how they manage those risks. institutions impact asset prices and financial market outcomes. about current approaches and proposals for regulating financial institutions.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (closed book, 60 Min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Oliver Spalt</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>and Insurance (FIN), Accounting and Taxation (AAT), Mathematical and Statistical Foundations (MSF), FIN 590</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 684 Financial Institutions II</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course provides an in-depth look at financial institutions and the role they play for financial markets today. The course will address questions such as: Which financial institutions exist? Why do they exist? What risks do they face? risks? prices? How does their behavior impact the economy at large? financial institutions? The course Financial Institutions II will put emphasis on important non-bank financial institutions (e.g., pension funds, mutual funds, hedge funds etc.).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing this course, students will have a thorough understanding of the economic reasons for the existence of non-bank financial institutions. Students will understand the eco-system of non-bank financial institutions and their role in the global financial markets. Students will gain knowledge about what risks managers in non-bank financial institutions face and how they manage those risks. institutions impact asset prices and financial market outcomes. about current approaches and proposals for regulating financial institutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>and Insurance (FIN), Accounting and Taxation (AAT), Mathematical and Statistical Foundations (MSF), FIN 590</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (closed book, 60 Min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Oliver Spalt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
